--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2905499.038379927</v>
+        <v>2903611.456863523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>100.6257594888055</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
-        <v>94.17336894638987</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>204.2352739248689</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>278.4190107396776</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>148.3725158629812</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>279.9387901805692</v>
+        <v>268.3528239515853</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>162.5776147681367</v>
+        <v>47.36189168600487</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.6519788371597</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750035</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>20.6649048731063</v>
+        <v>188.7255696453507</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>91.33209909790605</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>36.59749465797585</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>111.9679966130648</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>194.6193727018214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>37.56516399334265</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>74.33725320449521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.7955476484025</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>251.7075876065301</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>74.64585437511727</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>149.7594527869388</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2540.478220246892</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2540.478220246892</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2540.478220246892</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2167.012461985812</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2167.012461985812</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2182.06035969704</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.06035969704</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.06035969704</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>350.9495687306105</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>903.3817252132462</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4966,40 +4966,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
         <v>274.7355609638946</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,46 +5030,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.189502980821</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2361.490124716568</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1375.025382843599</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1151.239967633105</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>862.1113288466635</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407766</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>167.8887746690278</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507115</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507115</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383758</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383758</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104473</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="X16" t="n">
-        <v>964.8400440244814</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.0474648809512</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,25 +5534,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>292.8275092861694</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>539.5926371926334</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>846.9127704725951</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.3210135240263</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>337.3848305961194</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>337.3848305961194</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>189.4717370137263</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>189.4717370137263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>189.4717370137263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1150.953990714092</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655738</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X19" t="n">
-        <v>727.1135926675564</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.3210135240263</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,25 +5738,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
         <v>2525.810590821615</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.742180641885</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>1013.202406820125</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>723.7852367831648</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>723.7852367831648</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>723.7852367831648</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>454.214523894814</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>285.2783409669071</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>135.1617015545714</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V25" t="n">
-        <v>898.7925182488382</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W25" t="n">
-        <v>898.7925182488382</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="X25" t="n">
-        <v>670.8029673508208</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008257</v>
+        <v>454.214523894814</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,10 +6221,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>474.8900731662869</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1088.787142923176</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203137</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.96990386717</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085867</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>434.328596068372</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404651</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.193495155476</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>909.805663417789</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>655.1211752119021</v>
       </c>
       <c r="W28" t="n">
-        <v>727.6476863320732</v>
+        <v>655.1211752119021</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>655.1211752119021</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905256</v>
+        <v>434.328596068372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766204</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541576</v>
+        <v>583.6915747572943</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076215</v>
+        <v>470.5162571107581</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766566</v>
+        <v>376.1604829797931</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756343</v>
+        <v>376.1604829797931</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590945</v>
+        <v>285.0314007632534</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>172.6169443644447</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.539650367009</v>
+        <v>1712.787274970146</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.171876861938</v>
+        <v>1479.419501465076</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.248253937422</v>
+        <v>1280.495878540559</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.591949181832</v>
+        <v>1046.83957378497</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651859</v>
+        <v>874.6108881683228</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030266</v>
+        <v>709.5791743061634</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6783,19 +6783,19 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211722</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>966.693239001134</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.104817265285</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,16 +6859,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,7 +6956,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141293</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496978</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7102,7 +7102,7 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7181,10 +7181,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,13 +7205,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7254,19 +7254,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365137</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216475</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,16 +7476,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,22 +7494,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>113.602692129454</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.7176547498453</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>199.6230805871088</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>5.100663089359699</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>158.8724419039327</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>94.13752431970619</v>
+        <v>242.9997743936049</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>171.2966883299256</v>
       </c>
       <c r="O24" t="n">
-        <v>199.6230805871095</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>62.91120742583715</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.13752431970579</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>306.1147370139954</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="O33" t="n">
-        <v>283.6093329825487</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>73.64859338270662</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.8856946302395</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>18.73797368291309</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.23759968301999</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775548</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>75.26883114644356</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>205.0447505159308</v>
+        <v>36.98408574368644</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>57.58172926963007</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>184.9500664004133</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>85.95281337053871</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>57.51827062200655</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.8687986532265</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.2474001475996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>30.75201340998674</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>34.52976479204727</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>19.0647173638619</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>16.58485164289339</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934488</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>630574.3128851691</v>
+        <v>630574.3128851682</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="M2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="N2" t="n">
         <v>636307.3716448203</v>
       </c>
-      <c r="N2" t="n">
-        <v>636307.3716448188</v>
-      </c>
       <c r="O2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="P2" t="n">
         <v>636307.3716448201</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284557</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007456</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007455</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007496</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007478</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007489</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007451</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732792</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.6343490547</v>
+        <v>-184436.6343490552</v>
       </c>
       <c r="C6" t="n">
         <v>405531.2448654894</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654894</v>
+        <v>405531.2448654893</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817136</v>
+        <v>-19066.510614144</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887242</v>
+        <v>506093.5258627525</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887243</v>
+        <v>506093.5258627523</v>
       </c>
       <c r="H6" t="n">
-        <v>506190.9849887243</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.9849887247</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="J6" t="n">
-        <v>329767.7657961315</v>
+        <v>329670.3066701593</v>
       </c>
       <c r="K6" t="n">
-        <v>463702.1448818965</v>
+        <v>463683.6511439615</v>
       </c>
       <c r="L6" t="n">
-        <v>497913.8401266001</v>
+        <v>497913.8401265997</v>
       </c>
       <c r="M6" t="n">
-        <v>373455.7316936298</v>
+        <v>373455.7316936293</v>
       </c>
       <c r="N6" t="n">
-        <v>508256.7469274654</v>
+        <v>508256.7469274669</v>
       </c>
       <c r="O6" t="n">
-        <v>508256.7469274667</v>
+        <v>508256.7469274665</v>
       </c>
       <c r="P6" t="n">
-        <v>464094.1416246212</v>
+        <v>464094.1416246211</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>150.5984080194838</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
-        <v>73.07345215223796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>123.516984545266</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>107.818927916376</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>137.9093583789965</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>168.53933734988</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>74.74425144011371</v>
+        <v>86.33021766909769</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>123.9453835684543</v>
+        <v>239.1611066505861</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-2.509108021242779e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>71.38553859468877</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>510.0474576375751</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>155.6761016772989</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>492.0670153019457</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -35984,7 +35984,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>427.332097717719</v>
+        <v>576.1943477916178</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>504.4912617279386</v>
       </c>
       <c r="O24" t="n">
-        <v>481.9867828282176</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>213.4866460137764</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>588.4784392551036</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>492.2066737115368</v>
       </c>
       <c r="O33" t="n">
-        <v>565.9730352236569</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>224.2240319706459</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>395.9791095617642</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>351.932547080926</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>179.2506324680942</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988637</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
